--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>187.9582977294922</v>
+        <v>184.2105255126953</v>
       </c>
       <c r="H2" t="n">
-        <v>79.13684844970703</v>
+        <v>116.3115234375</v>
       </c>
       <c r="I2" t="n">
-        <v>594.4847412109375</v>
+        <v>582.374267578125</v>
       </c>
       <c r="J2" t="n">
-        <v>106.1520843505859</v>
+        <v>85.50262451171875</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>210.8569793701172</v>
+        <v>213.2830352783203</v>
       </c>
       <c r="H3" t="n">
-        <v>92.31407928466797</v>
+        <v>118.2137069702148</v>
       </c>
       <c r="I3" t="n">
-        <v>645.5452880859375</v>
+        <v>628.436279296875</v>
       </c>
       <c r="J3" t="n">
-        <v>116.3701324462891</v>
+        <v>95.34770965576172</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>239.9290618896484</v>
+        <v>254.9824981689453</v>
       </c>
       <c r="H4" t="n">
-        <v>107.713623046875</v>
+        <v>121.1778259277344</v>
       </c>
       <c r="I4" t="n">
-        <v>679.5267944335938</v>
+        <v>654.99169921875</v>
       </c>
       <c r="J4" t="n">
-        <v>126.1627807617188</v>
+        <v>101.6093139648438</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>296.6820678710938</v>
+        <v>307.0125122070312</v>
       </c>
       <c r="H5" t="n">
-        <v>136.5504455566406</v>
+        <v>127.661735534668</v>
       </c>
       <c r="I5" t="n">
-        <v>717.7523803710938</v>
+        <v>684.5062255859375</v>
       </c>
       <c r="J5" t="n">
-        <v>119.1363983154297</v>
+        <v>105.8384170532227</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>370.6087036132812</v>
+        <v>402.9348449707031</v>
       </c>
       <c r="H6" t="n">
-        <v>156.2950744628906</v>
+        <v>141.0206146240234</v>
       </c>
       <c r="I6" t="n">
-        <v>756.5985107421875</v>
+        <v>709.6810302734375</v>
       </c>
       <c r="J6" t="n">
-        <v>113.1851654052734</v>
+        <v>102.9979858398438</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>182.2955932617188</v>
+        <v>183.4116821289062</v>
       </c>
       <c r="H7" t="n">
-        <v>70.84752655029297</v>
+        <v>85.53216552734375</v>
       </c>
       <c r="I7" t="n">
-        <v>497.5328063964844</v>
+        <v>494.5598449707031</v>
       </c>
       <c r="J7" t="n">
-        <v>77.95465850830078</v>
+        <v>74.84708404541016</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>194.3067169189453</v>
+        <v>188.3087310791016</v>
       </c>
       <c r="H8" t="n">
-        <v>68.44139099121094</v>
+        <v>89.53366088867188</v>
       </c>
       <c r="I8" t="n">
-        <v>527.8125</v>
+        <v>525.1614379882812</v>
       </c>
       <c r="J8" t="n">
-        <v>84.42708587646484</v>
+        <v>79.57501220703125</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>205.0378265380859</v>
+        <v>207.3898162841797</v>
       </c>
       <c r="H9" t="n">
-        <v>71.36898803710938</v>
+        <v>100.5773239135742</v>
       </c>
       <c r="I9" t="n">
-        <v>576.3851928710938</v>
+        <v>568.0252685546875</v>
       </c>
       <c r="J9" t="n">
-        <v>94.32979583740234</v>
+        <v>79.13750457763672</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>230.16357421875</v>
+        <v>236.4252014160156</v>
       </c>
       <c r="H10" t="n">
-        <v>85.35313415527344</v>
+        <v>102.786750793457</v>
       </c>
       <c r="I10" t="n">
-        <v>610.9037475585938</v>
+        <v>599.4999389648438</v>
       </c>
       <c r="J10" t="n">
-        <v>99.41928863525391</v>
+        <v>86.75414276123047</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>282.0210876464844</v>
+        <v>293.966796875</v>
       </c>
       <c r="H11" t="n">
-        <v>107.5867385864258</v>
+        <v>114.6930847167969</v>
       </c>
       <c r="I11" t="n">
-        <v>660.3505249023438</v>
+        <v>628.5960083007812</v>
       </c>
       <c r="J11" t="n">
-        <v>97.94901275634766</v>
+        <v>87.12809753417969</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>358.3269653320312</v>
+        <v>380.2292175292969</v>
       </c>
       <c r="H12" t="n">
-        <v>140.7665405273438</v>
+        <v>128.6711578369141</v>
       </c>
       <c r="I12" t="n">
-        <v>700.8776245117188</v>
+        <v>668.6180419921875</v>
       </c>
       <c r="J12" t="n">
-        <v>100.321174621582</v>
+        <v>97.94139099121094</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>490.6642761230469</v>
+        <v>537.8798217773438</v>
       </c>
       <c r="H13" t="n">
-        <v>159.9154357910156</v>
+        <v>138.054931640625</v>
       </c>
       <c r="I13" t="n">
-        <v>719.7655639648438</v>
+        <v>701.412841796875</v>
       </c>
       <c r="J13" t="n">
-        <v>118.8969879150391</v>
+        <v>107.7104949951172</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>189.7635040283203</v>
+        <v>188.478515625</v>
       </c>
       <c r="H14" t="n">
-        <v>77.54757690429688</v>
+        <v>75.59304046630859</v>
       </c>
       <c r="I14" t="n">
-        <v>343.1549987792969</v>
+        <v>334.5627746582031</v>
       </c>
       <c r="J14" t="n">
-        <v>85.05003356933594</v>
+        <v>87.25178527832031</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>204.5571746826172</v>
+        <v>197.8910675048828</v>
       </c>
       <c r="H15" t="n">
-        <v>68.63041687011719</v>
+        <v>74.66574096679688</v>
       </c>
       <c r="I15" t="n">
-        <v>433.0885009765625</v>
+        <v>424.7846374511719</v>
       </c>
       <c r="J15" t="n">
-        <v>84.77204895019531</v>
+        <v>79.56146240234375</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>222.0018768310547</v>
+        <v>222.8502044677734</v>
       </c>
       <c r="H16" t="n">
-        <v>67.03525543212891</v>
+        <v>74.51947021484375</v>
       </c>
       <c r="I16" t="n">
-        <v>528.8986206054688</v>
+        <v>526.1326904296875</v>
       </c>
       <c r="J16" t="n">
-        <v>82.95186614990234</v>
+        <v>70.47538757324219</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>223.946044921875</v>
+        <v>225.7602081298828</v>
       </c>
       <c r="H17" t="n">
-        <v>60.20710754394531</v>
+        <v>77.56478118896484</v>
       </c>
       <c r="I17" t="n">
-        <v>527.2271728515625</v>
+        <v>525.0684204101562</v>
       </c>
       <c r="J17" t="n">
-        <v>86.04177093505859</v>
+        <v>76.98240661621094</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>240.0552368164062</v>
+        <v>248.2204132080078</v>
       </c>
       <c r="H18" t="n">
-        <v>62.9797248840332</v>
+        <v>78.06387329101562</v>
       </c>
       <c r="I18" t="n">
-        <v>577.5548706054688</v>
+        <v>563.6580200195312</v>
       </c>
       <c r="J18" t="n">
-        <v>86.52747344970703</v>
+        <v>74.15254211425781</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>280.6326293945312</v>
+        <v>287.1843872070312</v>
       </c>
       <c r="H19" t="n">
-        <v>79.45455932617188</v>
+        <v>86.99629974365234</v>
       </c>
       <c r="I19" t="n">
-        <v>616.0645751953125</v>
+        <v>593.1802368164062</v>
       </c>
       <c r="J19" t="n">
-        <v>88.66683197021484</v>
+        <v>80.63370513916016</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>356.5091552734375</v>
+        <v>362.3568725585938</v>
       </c>
       <c r="H20" t="n">
-        <v>119.7461853027344</v>
+        <v>108.7476959228516</v>
       </c>
       <c r="I20" t="n">
-        <v>658.3673706054688</v>
+        <v>624.7252197265625</v>
       </c>
       <c r="J20" t="n">
-        <v>104.1307907104492</v>
+        <v>84.25914764404297</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>507.2022399902344</v>
+        <v>522.0775756835938</v>
       </c>
       <c r="H21" t="n">
-        <v>143.840576171875</v>
+        <v>129.7427520751953</v>
       </c>
       <c r="I21" t="n">
-        <v>691.0587768554688</v>
+        <v>658.1014404296875</v>
       </c>
       <c r="J21" t="n">
-        <v>112.0133285522461</v>
+        <v>104.8443222045898</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>683.2835083007812</v>
+        <v>699.6688842773438</v>
       </c>
       <c r="H22" t="n">
-        <v>124.1803588867188</v>
+        <v>99.83635711669922</v>
       </c>
       <c r="I22" t="n">
-        <v>723.3492431640625</v>
+        <v>697.6203002929688</v>
       </c>
       <c r="J22" t="n">
-        <v>141.2613372802734</v>
+        <v>121.3715972900391</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>193.1523590087891</v>
+        <v>196.9310455322266</v>
       </c>
       <c r="H23" t="n">
-        <v>69.89394378662109</v>
+        <v>69.97285461425781</v>
       </c>
       <c r="I23" t="n">
-        <v>261.0259704589844</v>
+        <v>241.0118255615234</v>
       </c>
       <c r="J23" t="n">
-        <v>90.39762115478516</v>
+        <v>85.0142822265625</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>211.7572479248047</v>
+        <v>214.0158233642578</v>
       </c>
       <c r="H24" t="n">
-        <v>68.83280944824219</v>
+        <v>64.0634765625</v>
       </c>
       <c r="I24" t="n">
-        <v>310.0111083984375</v>
+        <v>295.6018981933594</v>
       </c>
       <c r="J24" t="n">
-        <v>83.77735137939453</v>
+        <v>89.56424713134766</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>229.6607360839844</v>
+        <v>230.61083984375</v>
       </c>
       <c r="H25" t="n">
-        <v>61.20683288574219</v>
+        <v>65.92587280273438</v>
       </c>
       <c r="I25" t="n">
-        <v>392.035888671875</v>
+        <v>386.1917419433594</v>
       </c>
       <c r="J25" t="n">
-        <v>92.89849853515625</v>
+        <v>99.1282958984375</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>245.4026794433594</v>
+        <v>249.6589508056641</v>
       </c>
       <c r="H26" t="n">
-        <v>55.95942687988281</v>
+        <v>60.03112411499023</v>
       </c>
       <c r="I26" t="n">
-        <v>463.4722290039062</v>
+        <v>457.4676513671875</v>
       </c>
       <c r="J26" t="n">
-        <v>97.37570953369141</v>
+        <v>89.19450378417969</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>267.767822265625</v>
+        <v>269.291259765625</v>
       </c>
       <c r="H27" t="n">
-        <v>51.88994598388672</v>
+        <v>58.34495544433594</v>
       </c>
       <c r="I27" t="n">
-        <v>524.5026245117188</v>
+        <v>515.893310546875</v>
       </c>
       <c r="J27" t="n">
-        <v>93.70063781738281</v>
+        <v>84.12107086181641</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>295.2311096191406</v>
+        <v>300.2030639648438</v>
       </c>
       <c r="H28" t="n">
-        <v>59.50418472290039</v>
+        <v>64.43265533447266</v>
       </c>
       <c r="I28" t="n">
-        <v>586.0249633789062</v>
+        <v>572.6810302734375</v>
       </c>
       <c r="J28" t="n">
-        <v>94.19062805175781</v>
+        <v>79.29543304443359</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>363.1767272949219</v>
+        <v>356.3304748535156</v>
       </c>
       <c r="H29" t="n">
-        <v>94.80322265625</v>
+        <v>87.66119384765625</v>
       </c>
       <c r="I29" t="n">
-        <v>633.1864624023438</v>
+        <v>591.0467529296875</v>
       </c>
       <c r="J29" t="n">
-        <v>103.7068710327148</v>
+        <v>85.80487823486328</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>527.5632934570312</v>
+        <v>509.9352722167969</v>
       </c>
       <c r="H30" t="n">
-        <v>122.0401458740234</v>
+        <v>117.893913269043</v>
       </c>
       <c r="I30" t="n">
-        <v>675.7212524414062</v>
+        <v>627.9371337890625</v>
       </c>
       <c r="J30" t="n">
-        <v>128.9056396484375</v>
+        <v>97.57152557373047</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>689.167724609375</v>
+        <v>689.184814453125</v>
       </c>
       <c r="H31" t="n">
-        <v>104.3415145874023</v>
+        <v>82.14723968505859</v>
       </c>
       <c r="I31" t="n">
-        <v>685.36328125</v>
+        <v>640.571533203125</v>
       </c>
       <c r="J31" t="n">
-        <v>152.7186737060547</v>
+        <v>133.6714172363281</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>195.4272308349609</v>
+        <v>196.4085388183594</v>
       </c>
       <c r="H32" t="n">
-        <v>71.60090637207031</v>
+        <v>71.21794128417969</v>
       </c>
       <c r="I32" t="n">
-        <v>180.4836730957031</v>
+        <v>175.685302734375</v>
       </c>
       <c r="J32" t="n">
-        <v>77.14613342285156</v>
+        <v>80.06353759765625</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>222.2500305175781</v>
+        <v>225.0074462890625</v>
       </c>
       <c r="H33" t="n">
-        <v>63.65811920166016</v>
+        <v>62.47665023803711</v>
       </c>
       <c r="I33" t="n">
-        <v>233.3550567626953</v>
+        <v>218.0928497314453</v>
       </c>
       <c r="J33" t="n">
-        <v>81.15266418457031</v>
+        <v>88.49263000488281</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>246.5132598876953</v>
+        <v>252.1868743896484</v>
       </c>
       <c r="H34" t="n">
-        <v>57.52372741699219</v>
+        <v>57.37820816040039</v>
       </c>
       <c r="I34" t="n">
-        <v>292.0907592773438</v>
+        <v>286.4558715820312</v>
       </c>
       <c r="J34" t="n">
-        <v>89.41367340087891</v>
+        <v>101.4549179077148</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>271.5073547363281</v>
+        <v>278.6061706542969</v>
       </c>
       <c r="H35" t="n">
-        <v>53.44524383544922</v>
+        <v>49.63882827758789</v>
       </c>
       <c r="I35" t="n">
-        <v>348.6924438476562</v>
+        <v>353.9670104980469</v>
       </c>
       <c r="J35" t="n">
-        <v>98.22757720947266</v>
+        <v>117.223876953125</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>293.1492919921875</v>
+        <v>300.5113220214844</v>
       </c>
       <c r="H36" t="n">
-        <v>49.25119400024414</v>
+        <v>48.1932487487793</v>
       </c>
       <c r="I36" t="n">
-        <v>461.0885925292969</v>
+        <v>465.0265197753906</v>
       </c>
       <c r="J36" t="n">
-        <v>111.766242980957</v>
+        <v>110.7209167480469</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>316.1361694335938</v>
+        <v>325.7792663574219</v>
       </c>
       <c r="H37" t="n">
-        <v>47.23287200927734</v>
+        <v>46.99543762207031</v>
       </c>
       <c r="I37" t="n">
-        <v>536.5172119140625</v>
+        <v>526.3450927734375</v>
       </c>
       <c r="J37" t="n">
-        <v>112.2503890991211</v>
+        <v>106.6966857910156</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>384.3440246582031</v>
+        <v>379.6229248046875</v>
       </c>
       <c r="H38" t="n">
-        <v>75.08364868164062</v>
+        <v>69.91995239257812</v>
       </c>
       <c r="I38" t="n">
-        <v>614.5382690429688</v>
+        <v>571.6965942382812</v>
       </c>
       <c r="J38" t="n">
-        <v>116.6517868041992</v>
+        <v>102.162956237793</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>520.0687255859375</v>
+        <v>494.7803039550781</v>
       </c>
       <c r="H39" t="n">
-        <v>100.2883071899414</v>
+        <v>96.08827209472656</v>
       </c>
       <c r="I39" t="n">
-        <v>649.1685791015625</v>
+        <v>581.9895629882812</v>
       </c>
       <c r="J39" t="n">
-        <v>137.1316070556641</v>
+        <v>111.2637023925781</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>674.0122680664062</v>
+        <v>665.412109375</v>
       </c>
       <c r="H40" t="n">
-        <v>86.51592254638672</v>
+        <v>68.1507568359375</v>
       </c>
       <c r="I40" t="n">
-        <v>657.9371948242188</v>
+        <v>554.9954833984375</v>
       </c>
       <c r="J40" t="n">
-        <v>163.7301940917969</v>
+        <v>153.1386413574219</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>208.9544677734375</v>
+        <v>202.7286529541016</v>
       </c>
       <c r="H41" t="n">
-        <v>72.87914276123047</v>
+        <v>68.01332855224609</v>
       </c>
       <c r="I41" t="n">
-        <v>135.5037231445312</v>
+        <v>125.4194259643555</v>
       </c>
       <c r="J41" t="n">
-        <v>76.65415191650391</v>
+        <v>76.98886871337891</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>233.3040313720703</v>
+        <v>229.1161956787109</v>
       </c>
       <c r="H42" t="n">
-        <v>62.9398078918457</v>
+        <v>57.45975112915039</v>
       </c>
       <c r="I42" t="n">
-        <v>165.7385101318359</v>
+        <v>155.0871429443359</v>
       </c>
       <c r="J42" t="n">
-        <v>77.552978515625</v>
+        <v>80.98989868164062</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>252.1485137939453</v>
+        <v>251.8788604736328</v>
       </c>
       <c r="H43" t="n">
-        <v>55.7227783203125</v>
+        <v>50.12472152709961</v>
       </c>
       <c r="I43" t="n">
-        <v>187.0723114013672</v>
+        <v>181.3298950195312</v>
       </c>
       <c r="J43" t="n">
-        <v>85.50337219238281</v>
+        <v>88.68533325195312</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>282.3114318847656</v>
+        <v>292.70263671875</v>
       </c>
       <c r="H44" t="n">
-        <v>51.96421432495117</v>
+        <v>47.29490661621094</v>
       </c>
       <c r="I44" t="n">
-        <v>262.3401184082031</v>
+        <v>275.1482543945312</v>
       </c>
       <c r="J44" t="n">
-        <v>95.21260833740234</v>
+        <v>115.3069381713867</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>303.5478515625</v>
+        <v>313.0726318359375</v>
       </c>
       <c r="H45" t="n">
-        <v>47.47019958496094</v>
+        <v>44.01781845092773</v>
       </c>
       <c r="I45" t="n">
-        <v>331.8740539550781</v>
+        <v>335.479736328125</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9173431396484</v>
+        <v>136.7663421630859</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>340.2809143066406</v>
+        <v>345.7149047851562</v>
       </c>
       <c r="H46" t="n">
-        <v>45.65740203857422</v>
+        <v>41.94318389892578</v>
       </c>
       <c r="I46" t="n">
-        <v>435.3560791015625</v>
+        <v>448.3943176269531</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6470489501953</v>
+        <v>141.3811340332031</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>402.4938354492188</v>
+        <v>405.1975402832031</v>
       </c>
       <c r="H47" t="n">
-        <v>53.8427734375</v>
+        <v>53.68022537231445</v>
       </c>
       <c r="I47" t="n">
-        <v>560.0109252929688</v>
+        <v>527.650146484375</v>
       </c>
       <c r="J47" t="n">
-        <v>124.1480865478516</v>
+        <v>137.4132995605469</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>530.531005859375</v>
+        <v>501.4375</v>
       </c>
       <c r="H48" t="n">
-        <v>86.49939727783203</v>
+        <v>75.98122406005859</v>
       </c>
       <c r="I48" t="n">
-        <v>621.671875</v>
+        <v>537.553955078125</v>
       </c>
       <c r="J48" t="n">
-        <v>145.2413940429688</v>
+        <v>151.8984222412109</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>649.3394165039062</v>
+        <v>630.729736328125</v>
       </c>
       <c r="H49" t="n">
-        <v>80.69767761230469</v>
+        <v>56.16370010375977</v>
       </c>
       <c r="I49" t="n">
-        <v>634.6885375976562</v>
+        <v>506.3346862792969</v>
       </c>
       <c r="J49" t="n">
-        <v>167.9895935058594</v>
+        <v>167.7245788574219</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>221.9267120361328</v>
+        <v>219.2819519042969</v>
       </c>
       <c r="H50" t="n">
-        <v>65.84552001953125</v>
+        <v>61.81638717651367</v>
       </c>
       <c r="I50" t="n">
-        <v>76.78862762451172</v>
+        <v>74.94629669189453</v>
       </c>
       <c r="J50" t="n">
-        <v>81.67440795898438</v>
+        <v>81.98258209228516</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>242.2542114257812</v>
+        <v>243.5435180664062</v>
       </c>
       <c r="H51" t="n">
-        <v>54.71500396728516</v>
+        <v>56.35526275634766</v>
       </c>
       <c r="I51" t="n">
-        <v>102.5133361816406</v>
+        <v>94.26331329345703</v>
       </c>
       <c r="J51" t="n">
-        <v>79.63671112060547</v>
+        <v>78.07139587402344</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>267.1305847167969</v>
+        <v>262.6412658691406</v>
       </c>
       <c r="H52" t="n">
-        <v>54.05559539794922</v>
+        <v>56.94102096557617</v>
       </c>
       <c r="I52" t="n">
-        <v>120.7265625</v>
+        <v>111.2432327270508</v>
       </c>
       <c r="J52" t="n">
-        <v>82.70228576660156</v>
+        <v>83.54253387451172</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>294.6729736328125</v>
+        <v>299.3434143066406</v>
       </c>
       <c r="H53" t="n">
-        <v>48.57063293457031</v>
+        <v>47.26855087280273</v>
       </c>
       <c r="I53" t="n">
-        <v>175.5030670166016</v>
+        <v>164.4794006347656</v>
       </c>
       <c r="J53" t="n">
-        <v>88.30233001708984</v>
+        <v>96.70729064941406</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>326.6316528320312</v>
+        <v>330.5950012207031</v>
       </c>
       <c r="H54" t="n">
-        <v>47.66255569458008</v>
+        <v>43.67734146118164</v>
       </c>
       <c r="I54" t="n">
-        <v>239.8573913574219</v>
+        <v>241.6119995117188</v>
       </c>
       <c r="J54" t="n">
-        <v>108.254264831543</v>
+        <v>134.9398345947266</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>357.4397277832031</v>
+        <v>364.8057250976562</v>
       </c>
       <c r="H55" t="n">
-        <v>46.31624221801758</v>
+        <v>40.12596130371094</v>
       </c>
       <c r="I55" t="n">
-        <v>342.1868896484375</v>
+        <v>344.7053527832031</v>
       </c>
       <c r="J55" t="n">
-        <v>139.3578796386719</v>
+        <v>170.6415557861328</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>410.4881286621094</v>
+        <v>412.8510131835938</v>
       </c>
       <c r="H56" t="n">
-        <v>55.74696731567383</v>
+        <v>47.85874938964844</v>
       </c>
       <c r="I56" t="n">
-        <v>457.8692626953125</v>
+        <v>421.1962280273438</v>
       </c>
       <c r="J56" t="n">
-        <v>167.4193420410156</v>
+        <v>186.4635467529297</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>500.2079162597656</v>
+        <v>486.6280212402344</v>
       </c>
       <c r="H57" t="n">
-        <v>70.92702484130859</v>
+        <v>61.31978607177734</v>
       </c>
       <c r="I57" t="n">
-        <v>570.4697265625</v>
+        <v>482.2529296875</v>
       </c>
       <c r="J57" t="n">
-        <v>158.3670043945312</v>
+        <v>176.1918029785156</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>627.2936401367188</v>
+        <v>611.4000244140625</v>
       </c>
       <c r="H58" t="n">
-        <v>71.37474060058594</v>
+        <v>55.0994987487793</v>
       </c>
       <c r="I58" t="n">
-        <v>586.6217651367188</v>
+        <v>456.1095886230469</v>
       </c>
       <c r="J58" t="n">
-        <v>186.1538391113281</v>
+        <v>187.6742553710938</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>260.7651062011719</v>
+        <v>249.4624786376953</v>
       </c>
       <c r="H59" t="n">
-        <v>56.85837173461914</v>
+        <v>60.47968673706055</v>
       </c>
       <c r="I59" t="n">
-        <v>39.35976409912109</v>
+        <v>30.203369140625</v>
       </c>
       <c r="J59" t="n">
-        <v>82.78475952148438</v>
+        <v>80.82898712158203</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>281.3626708984375</v>
+        <v>274.5690612792969</v>
       </c>
       <c r="H60" t="n">
-        <v>49.52164840698242</v>
+        <v>56.4847412109375</v>
       </c>
       <c r="I60" t="n">
-        <v>72.06959533691406</v>
+        <v>47.46010971069336</v>
       </c>
       <c r="J60" t="n">
-        <v>85.23609161376953</v>
+        <v>82.35601043701172</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>306.5790710449219</v>
+        <v>301.7061157226562</v>
       </c>
       <c r="H61" t="n">
-        <v>49.74257278442383</v>
+        <v>48.97890472412109</v>
       </c>
       <c r="I61" t="n">
-        <v>101.3363723754883</v>
+        <v>78.81766510009766</v>
       </c>
       <c r="J61" t="n">
-        <v>91.52192687988281</v>
+        <v>87.35337066650391</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>329.180908203125</v>
+        <v>333.1185302734375</v>
       </c>
       <c r="H62" t="n">
-        <v>48.22336578369141</v>
+        <v>47.02583694458008</v>
       </c>
       <c r="I62" t="n">
-        <v>156.8568572998047</v>
+        <v>128.8299102783203</v>
       </c>
       <c r="J62" t="n">
-        <v>103.7771530151367</v>
+        <v>100.7861633300781</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>360.3059692382812</v>
+        <v>363.9632568359375</v>
       </c>
       <c r="H63" t="n">
-        <v>46.49832916259766</v>
+        <v>40.92242050170898</v>
       </c>
       <c r="I63" t="n">
-        <v>240.3864135742188</v>
+        <v>233.0279998779297</v>
       </c>
       <c r="J63" t="n">
-        <v>136.965576171875</v>
+        <v>156.6970977783203</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>415.4250183105469</v>
+        <v>416.1672973632812</v>
       </c>
       <c r="H64" t="n">
-        <v>58.00033950805664</v>
+        <v>45.83116149902344</v>
       </c>
       <c r="I64" t="n">
-        <v>361.8093872070312</v>
+        <v>350.009521484375</v>
       </c>
       <c r="J64" t="n">
-        <v>173.0744018554688</v>
+        <v>195.4944152832031</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>500.364990234375</v>
+        <v>490.0167236328125</v>
       </c>
       <c r="H65" t="n">
-        <v>66.01371002197266</v>
+        <v>61.59178161621094</v>
       </c>
       <c r="I65" t="n">
-        <v>491.2981872558594</v>
+        <v>439.9242858886719</v>
       </c>
       <c r="J65" t="n">
-        <v>193.5277099609375</v>
+        <v>203.2004241943359</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>292.7069091796875</v>
+        <v>284.4324645996094</v>
       </c>
       <c r="H66" t="n">
-        <v>47.33321762084961</v>
+        <v>54.88491439819336</v>
       </c>
       <c r="I66" t="n">
-        <v>10.29293155670166</v>
+        <v>-14.18137741088867</v>
       </c>
       <c r="J66" t="n">
-        <v>85.18350219726562</v>
+        <v>82.55889129638672</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>309.6195983886719</v>
+        <v>305.2059631347656</v>
       </c>
       <c r="H67" t="n">
-        <v>48.396728515625</v>
+        <v>49.91336059570312</v>
       </c>
       <c r="I67" t="n">
-        <v>25.7065258026123</v>
+        <v>1.173133254051208</v>
       </c>
       <c r="J67" t="n">
-        <v>85.97876739501953</v>
+        <v>81.55355834960938</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>345.4788818359375</v>
+        <v>339.9328002929688</v>
       </c>
       <c r="H68" t="n">
-        <v>43.63610458374023</v>
+        <v>44.47214889526367</v>
       </c>
       <c r="I68" t="n">
-        <v>87.69068908691406</v>
+        <v>63.07463073730469</v>
       </c>
       <c r="J68" t="n">
-        <v>96.73627471923828</v>
+        <v>94.55744934082031</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>364.5036010742188</v>
+        <v>360.9931030273438</v>
       </c>
       <c r="H69" t="n">
-        <v>43.1885871887207</v>
+        <v>43.44214248657227</v>
       </c>
       <c r="I69" t="n">
-        <v>144.3818206787109</v>
+        <v>126.2346115112305</v>
       </c>
       <c r="J69" t="n">
-        <v>125.6922225952148</v>
+        <v>124.5868072509766</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>415.8353881835938</v>
+        <v>415.4410400390625</v>
       </c>
       <c r="H70" t="n">
-        <v>52.73984146118164</v>
+        <v>44.26079177856445</v>
       </c>
       <c r="I70" t="n">
-        <v>284.1878051757812</v>
+        <v>279.0829467773438</v>
       </c>
       <c r="J70" t="n">
-        <v>176.3531951904297</v>
+        <v>177.6757659912109</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>184.2105255126953</v>
+        <v>170.4806671142578</v>
       </c>
       <c r="H2" t="n">
-        <v>116.3115234375</v>
+        <v>86.29005432128906</v>
       </c>
       <c r="I2" t="n">
-        <v>582.374267578125</v>
+        <v>576.7957153320312</v>
       </c>
       <c r="J2" t="n">
-        <v>85.50262451171875</v>
+        <v>125.0615234375</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>213.2830352783203</v>
+        <v>193.5359954833984</v>
       </c>
       <c r="H3" t="n">
-        <v>118.2137069702148</v>
+        <v>99.22426605224609</v>
       </c>
       <c r="I3" t="n">
-        <v>628.436279296875</v>
+        <v>621.296875</v>
       </c>
       <c r="J3" t="n">
-        <v>95.34770965576172</v>
+        <v>133.7931823730469</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>254.9824981689453</v>
+        <v>227.47265625</v>
       </c>
       <c r="H4" t="n">
-        <v>121.1778259277344</v>
+        <v>106.2509536743164</v>
       </c>
       <c r="I4" t="n">
-        <v>654.99169921875</v>
+        <v>648.9989013671875</v>
       </c>
       <c r="J4" t="n">
-        <v>101.6093139648438</v>
+        <v>142.0811004638672</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>307.0125122070312</v>
+        <v>275.0315856933594</v>
       </c>
       <c r="H5" t="n">
-        <v>127.661735534668</v>
+        <v>131.6898498535156</v>
       </c>
       <c r="I5" t="n">
-        <v>684.5062255859375</v>
+        <v>664.4869995117188</v>
       </c>
       <c r="J5" t="n">
-        <v>105.8384170532227</v>
+        <v>150.1510009765625</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>402.9348449707031</v>
+        <v>366.2080078125</v>
       </c>
       <c r="H6" t="n">
-        <v>141.0206146240234</v>
+        <v>175.2099151611328</v>
       </c>
       <c r="I6" t="n">
-        <v>709.6810302734375</v>
+        <v>697.2879638671875</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9979858398438</v>
+        <v>152.7057342529297</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>183.4116821289062</v>
+        <v>191.6075439453125</v>
       </c>
       <c r="H7" t="n">
-        <v>85.53216552734375</v>
+        <v>68.13131713867188</v>
       </c>
       <c r="I7" t="n">
-        <v>494.5598449707031</v>
+        <v>507.8174438476562</v>
       </c>
       <c r="J7" t="n">
-        <v>74.84708404541016</v>
+        <v>88.75984954833984</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>188.3087310791016</v>
+        <v>196.0294952392578</v>
       </c>
       <c r="H8" t="n">
-        <v>89.53366088867188</v>
+        <v>66.61227416992188</v>
       </c>
       <c r="I8" t="n">
-        <v>525.1614379882812</v>
+        <v>539.0038452148438</v>
       </c>
       <c r="J8" t="n">
-        <v>79.57501220703125</v>
+        <v>101.6376571655273</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>207.3898162841797</v>
+        <v>210.5401153564453</v>
       </c>
       <c r="H9" t="n">
-        <v>100.5773239135742</v>
+        <v>73.1339111328125</v>
       </c>
       <c r="I9" t="n">
-        <v>568.0252685546875</v>
+        <v>582.37744140625</v>
       </c>
       <c r="J9" t="n">
-        <v>79.13750457763672</v>
+        <v>109.2521514892578</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>236.4252014160156</v>
+        <v>230.3766479492188</v>
       </c>
       <c r="H10" t="n">
-        <v>102.786750793457</v>
+        <v>88.24385070800781</v>
       </c>
       <c r="I10" t="n">
-        <v>599.4999389648438</v>
+        <v>608.3169555664062</v>
       </c>
       <c r="J10" t="n">
-        <v>86.75414276123047</v>
+        <v>114.3581161499023</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>293.966796875</v>
+        <v>281.6578063964844</v>
       </c>
       <c r="H11" t="n">
-        <v>114.6930847167969</v>
+        <v>102.5078659057617</v>
       </c>
       <c r="I11" t="n">
-        <v>628.5960083007812</v>
+        <v>644.4683837890625</v>
       </c>
       <c r="J11" t="n">
-        <v>87.12809753417969</v>
+        <v>119.9667816162109</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>380.2292175292969</v>
+        <v>359.8339233398438</v>
       </c>
       <c r="H12" t="n">
-        <v>128.6711578369141</v>
+        <v>143.1512908935547</v>
       </c>
       <c r="I12" t="n">
-        <v>668.6180419921875</v>
+        <v>681.206787109375</v>
       </c>
       <c r="J12" t="n">
-        <v>97.94139099121094</v>
+        <v>132.72607421875</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>537.8798217773438</v>
+        <v>507.62109375</v>
       </c>
       <c r="H13" t="n">
-        <v>138.054931640625</v>
+        <v>160.5464172363281</v>
       </c>
       <c r="I13" t="n">
-        <v>701.412841796875</v>
+        <v>701.4584350585938</v>
       </c>
       <c r="J13" t="n">
-        <v>107.7104949951172</v>
+        <v>146.1213073730469</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>188.478515625</v>
+        <v>189.6306610107422</v>
       </c>
       <c r="H14" t="n">
-        <v>75.59304046630859</v>
+        <v>70.79920959472656</v>
       </c>
       <c r="I14" t="n">
-        <v>334.5627746582031</v>
+        <v>339.8634948730469</v>
       </c>
       <c r="J14" t="n">
-        <v>87.25178527832031</v>
+        <v>87.89486694335938</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>197.8910675048828</v>
+        <v>204.8157501220703</v>
       </c>
       <c r="H15" t="n">
-        <v>74.66574096679688</v>
+        <v>68.74473571777344</v>
       </c>
       <c r="I15" t="n">
-        <v>424.7846374511719</v>
+        <v>431.6860046386719</v>
       </c>
       <c r="J15" t="n">
-        <v>79.56146240234375</v>
+        <v>90.86098480224609</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>222.8502044677734</v>
+        <v>226.7737274169922</v>
       </c>
       <c r="H16" t="n">
-        <v>74.51947021484375</v>
+        <v>59.69289398193359</v>
       </c>
       <c r="I16" t="n">
-        <v>526.1326904296875</v>
+        <v>537.2359619140625</v>
       </c>
       <c r="J16" t="n">
-        <v>70.47538757324219</v>
+        <v>95.01856994628906</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>225.7602081298828</v>
+        <v>227.8406982421875</v>
       </c>
       <c r="H17" t="n">
-        <v>77.56478118896484</v>
+        <v>57.83753204345703</v>
       </c>
       <c r="I17" t="n">
-        <v>525.0684204101562</v>
+        <v>538.4061889648438</v>
       </c>
       <c r="J17" t="n">
-        <v>76.98240661621094</v>
+        <v>99.60179138183594</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>248.2204132080078</v>
+        <v>243.3476257324219</v>
       </c>
       <c r="H18" t="n">
-        <v>78.06387329101562</v>
+        <v>61.90316390991211</v>
       </c>
       <c r="I18" t="n">
-        <v>563.6580200195312</v>
+        <v>580.14111328125</v>
       </c>
       <c r="J18" t="n">
-        <v>74.15254211425781</v>
+        <v>95.28127288818359</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>287.1843872070312</v>
+        <v>282.0380859375</v>
       </c>
       <c r="H19" t="n">
-        <v>86.99629974365234</v>
+        <v>79.69434356689453</v>
       </c>
       <c r="I19" t="n">
-        <v>593.1802368164062</v>
+        <v>623.62890625</v>
       </c>
       <c r="J19" t="n">
-        <v>80.63370513916016</v>
+        <v>94.04359436035156</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>362.3568725585938</v>
+        <v>357.7687377929688</v>
       </c>
       <c r="H20" t="n">
-        <v>108.7476959228516</v>
+        <v>116.8906021118164</v>
       </c>
       <c r="I20" t="n">
-        <v>624.7252197265625</v>
+        <v>651.5863037109375</v>
       </c>
       <c r="J20" t="n">
-        <v>84.25914764404297</v>
+        <v>114.4025268554688</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>522.0775756835938</v>
+        <v>508.8342590332031</v>
       </c>
       <c r="H21" t="n">
-        <v>129.7427520751953</v>
+        <v>150.9808502197266</v>
       </c>
       <c r="I21" t="n">
-        <v>658.1014404296875</v>
+        <v>690.0608520507812</v>
       </c>
       <c r="J21" t="n">
-        <v>104.8443222045898</v>
+        <v>139.2259979248047</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>699.6688842773438</v>
+        <v>699.6278076171875</v>
       </c>
       <c r="H22" t="n">
-        <v>99.83635711669922</v>
+        <v>109.7343597412109</v>
       </c>
       <c r="I22" t="n">
-        <v>697.6203002929688</v>
+        <v>735.4849243164062</v>
       </c>
       <c r="J22" t="n">
-        <v>121.3715972900391</v>
+        <v>160.9146575927734</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>196.9310455322266</v>
+        <v>192.0880737304688</v>
       </c>
       <c r="H23" t="n">
-        <v>69.97285461425781</v>
+        <v>67.01596069335938</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0118255615234</v>
+        <v>246.4094848632812</v>
       </c>
       <c r="J23" t="n">
-        <v>85.0142822265625</v>
+        <v>82.34796905517578</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>214.0158233642578</v>
+        <v>211.1215667724609</v>
       </c>
       <c r="H24" t="n">
-        <v>64.0634765625</v>
+        <v>62.55012130737305</v>
       </c>
       <c r="I24" t="n">
-        <v>295.6018981933594</v>
+        <v>298.3984985351562</v>
       </c>
       <c r="J24" t="n">
-        <v>89.56424713134766</v>
+        <v>83.96520233154297</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>230.61083984375</v>
+        <v>232.8313751220703</v>
       </c>
       <c r="H25" t="n">
-        <v>65.92587280273438</v>
+        <v>59.00140380859375</v>
       </c>
       <c r="I25" t="n">
-        <v>386.1917419433594</v>
+        <v>391.1219787597656</v>
       </c>
       <c r="J25" t="n">
-        <v>99.1282958984375</v>
+        <v>99.66578674316406</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>249.6589508056641</v>
+        <v>246.6453399658203</v>
       </c>
       <c r="H26" t="n">
-        <v>60.03112411499023</v>
+        <v>55.94550704956055</v>
       </c>
       <c r="I26" t="n">
-        <v>457.4676513671875</v>
+        <v>473.1879577636719</v>
       </c>
       <c r="J26" t="n">
-        <v>89.19450378417969</v>
+        <v>101.9718170166016</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>269.291259765625</v>
+        <v>264.2599487304688</v>
       </c>
       <c r="H27" t="n">
-        <v>58.34495544433594</v>
+        <v>50.68925857543945</v>
       </c>
       <c r="I27" t="n">
-        <v>515.893310546875</v>
+        <v>537.8121337890625</v>
       </c>
       <c r="J27" t="n">
-        <v>84.12107086181641</v>
+        <v>105.8811111450195</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>300.2030639648438</v>
+        <v>297.1683349609375</v>
       </c>
       <c r="H28" t="n">
-        <v>64.43265533447266</v>
+        <v>58.31271743774414</v>
       </c>
       <c r="I28" t="n">
-        <v>572.6810302734375</v>
+        <v>603.9605712890625</v>
       </c>
       <c r="J28" t="n">
-        <v>79.29543304443359</v>
+        <v>99.93170928955078</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>356.3304748535156</v>
+        <v>361.0595703125</v>
       </c>
       <c r="H29" t="n">
-        <v>87.66119384765625</v>
+        <v>86.12166595458984</v>
       </c>
       <c r="I29" t="n">
-        <v>591.0467529296875</v>
+        <v>644.1009521484375</v>
       </c>
       <c r="J29" t="n">
-        <v>85.80487823486328</v>
+        <v>113.4112167358398</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>509.9352722167969</v>
+        <v>516.4547119140625</v>
       </c>
       <c r="H30" t="n">
-        <v>117.893913269043</v>
+        <v>134.3912048339844</v>
       </c>
       <c r="I30" t="n">
-        <v>627.9371337890625</v>
+        <v>672.7032470703125</v>
       </c>
       <c r="J30" t="n">
-        <v>97.57152557373047</v>
+        <v>146.2801818847656</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>689.184814453125</v>
+        <v>681.8392944335938</v>
       </c>
       <c r="H31" t="n">
-        <v>82.14723968505859</v>
+        <v>96.28208923339844</v>
       </c>
       <c r="I31" t="n">
-        <v>640.571533203125</v>
+        <v>693.0243530273438</v>
       </c>
       <c r="J31" t="n">
-        <v>133.6714172363281</v>
+        <v>163.4676666259766</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4085388183594</v>
+        <v>188.046875</v>
       </c>
       <c r="H32" t="n">
-        <v>71.21794128417969</v>
+        <v>71.07714080810547</v>
       </c>
       <c r="I32" t="n">
-        <v>175.685302734375</v>
+        <v>173.6816711425781</v>
       </c>
       <c r="J32" t="n">
-        <v>80.06353759765625</v>
+        <v>78.11589050292969</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>225.0074462890625</v>
+        <v>216.0473327636719</v>
       </c>
       <c r="H33" t="n">
-        <v>62.47665023803711</v>
+        <v>65.92905426025391</v>
       </c>
       <c r="I33" t="n">
-        <v>218.0928497314453</v>
+        <v>220.9614105224609</v>
       </c>
       <c r="J33" t="n">
-        <v>88.49263000488281</v>
+        <v>80.09156036376953</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>252.1868743896484</v>
+        <v>241.1376800537109</v>
       </c>
       <c r="H34" t="n">
-        <v>57.37820816040039</v>
+        <v>59.92549514770508</v>
       </c>
       <c r="I34" t="n">
-        <v>286.4558715820312</v>
+        <v>293.4070434570312</v>
       </c>
       <c r="J34" t="n">
-        <v>101.4549179077148</v>
+        <v>92.34479522705078</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6061706542969</v>
+        <v>266.07177734375</v>
       </c>
       <c r="H35" t="n">
-        <v>49.63882827758789</v>
+        <v>53.57145309448242</v>
       </c>
       <c r="I35" t="n">
-        <v>353.9670104980469</v>
+        <v>373.083984375</v>
       </c>
       <c r="J35" t="n">
-        <v>117.223876953125</v>
+        <v>105.2029113769531</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>300.5113220214844</v>
+        <v>292.2579650878906</v>
       </c>
       <c r="H36" t="n">
-        <v>48.1932487487793</v>
+        <v>46.31455612182617</v>
       </c>
       <c r="I36" t="n">
-        <v>465.0265197753906</v>
+        <v>497.1231384277344</v>
       </c>
       <c r="J36" t="n">
-        <v>110.7209167480469</v>
+        <v>118.2748107910156</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>325.7792663574219</v>
+        <v>320.3398742675781</v>
       </c>
       <c r="H37" t="n">
-        <v>46.99543762207031</v>
+        <v>48.13756561279297</v>
       </c>
       <c r="I37" t="n">
-        <v>526.3450927734375</v>
+        <v>559.572265625</v>
       </c>
       <c r="J37" t="n">
-        <v>106.6966857910156</v>
+        <v>129.8319396972656</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>379.6229248046875</v>
+        <v>388.7887573242188</v>
       </c>
       <c r="H38" t="n">
-        <v>69.91995239257812</v>
+        <v>79.01389312744141</v>
       </c>
       <c r="I38" t="n">
-        <v>571.6965942382812</v>
+        <v>625.642578125</v>
       </c>
       <c r="J38" t="n">
-        <v>102.162956237793</v>
+        <v>134.6595458984375</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>494.7803039550781</v>
+        <v>506.71337890625</v>
       </c>
       <c r="H39" t="n">
-        <v>96.08827209472656</v>
+        <v>107.190185546875</v>
       </c>
       <c r="I39" t="n">
-        <v>581.9895629882812</v>
+        <v>642.1199340820312</v>
       </c>
       <c r="J39" t="n">
-        <v>111.2637023925781</v>
+        <v>148.1563720703125</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>665.412109375</v>
+        <v>663.5426635742188</v>
       </c>
       <c r="H40" t="n">
-        <v>68.1507568359375</v>
+        <v>84.92448425292969</v>
       </c>
       <c r="I40" t="n">
-        <v>554.9954833984375</v>
+        <v>654.0610961914062</v>
       </c>
       <c r="J40" t="n">
-        <v>153.1386413574219</v>
+        <v>172.6475219726562</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>202.7286529541016</v>
+        <v>193.0730133056641</v>
       </c>
       <c r="H41" t="n">
-        <v>68.01332855224609</v>
+        <v>68.80463409423828</v>
       </c>
       <c r="I41" t="n">
-        <v>125.4194259643555</v>
+        <v>124.6637725830078</v>
       </c>
       <c r="J41" t="n">
-        <v>76.98886871337891</v>
+        <v>71.48206329345703</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>229.1161956787109</v>
+        <v>220.6611480712891</v>
       </c>
       <c r="H42" t="n">
-        <v>57.45975112915039</v>
+        <v>62.44200897216797</v>
       </c>
       <c r="I42" t="n">
-        <v>155.0871429443359</v>
+        <v>154.9199981689453</v>
       </c>
       <c r="J42" t="n">
-        <v>80.98989868164062</v>
+        <v>77.70725250244141</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>251.8788604736328</v>
+        <v>248.9205017089844</v>
       </c>
       <c r="H43" t="n">
-        <v>50.12472152709961</v>
+        <v>57.92836380004883</v>
       </c>
       <c r="I43" t="n">
-        <v>181.3298950195312</v>
+        <v>184.7498168945312</v>
       </c>
       <c r="J43" t="n">
-        <v>88.68533325195312</v>
+        <v>86.80190277099609</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>292.70263671875</v>
+        <v>273.9163208007812</v>
       </c>
       <c r="H44" t="n">
-        <v>47.29490661621094</v>
+        <v>52.15863418579102</v>
       </c>
       <c r="I44" t="n">
-        <v>275.1482543945312</v>
+        <v>279.6640014648438</v>
       </c>
       <c r="J44" t="n">
-        <v>115.3069381713867</v>
+        <v>100.2591094970703</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>313.0726318359375</v>
+        <v>300.1963500976562</v>
       </c>
       <c r="H45" t="n">
-        <v>44.01781845092773</v>
+        <v>52.74314498901367</v>
       </c>
       <c r="I45" t="n">
-        <v>335.479736328125</v>
+        <v>373.9091491699219</v>
       </c>
       <c r="J45" t="n">
-        <v>136.7663421630859</v>
+        <v>123.220832824707</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>345.7149047851562</v>
+        <v>332.0244140625</v>
       </c>
       <c r="H46" t="n">
-        <v>41.94318389892578</v>
+        <v>47.92733764648438</v>
       </c>
       <c r="I46" t="n">
-        <v>448.3943176269531</v>
+        <v>500.2933959960938</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3811340332031</v>
+        <v>145.6698455810547</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>405.1975402832031</v>
+        <v>403.0162353515625</v>
       </c>
       <c r="H47" t="n">
-        <v>53.68022537231445</v>
+        <v>65.68570709228516</v>
       </c>
       <c r="I47" t="n">
-        <v>527.650146484375</v>
+        <v>587.7683715820312</v>
       </c>
       <c r="J47" t="n">
-        <v>137.4132995605469</v>
+        <v>158.7975311279297</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>501.4375</v>
+        <v>523.0392456054688</v>
       </c>
       <c r="H48" t="n">
-        <v>75.98122406005859</v>
+        <v>92.66135406494141</v>
       </c>
       <c r="I48" t="n">
-        <v>537.553955078125</v>
+        <v>613.8670043945312</v>
       </c>
       <c r="J48" t="n">
-        <v>151.8984222412109</v>
+        <v>163.7181701660156</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>630.729736328125</v>
+        <v>628.9813232421875</v>
       </c>
       <c r="H49" t="n">
-        <v>56.16370010375977</v>
+        <v>85.32049560546875</v>
       </c>
       <c r="I49" t="n">
-        <v>506.3346862792969</v>
+        <v>622.4141845703125</v>
       </c>
       <c r="J49" t="n">
-        <v>167.7245788574219</v>
+        <v>187.778564453125</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>219.2819519042969</v>
+        <v>206.3216857910156</v>
       </c>
       <c r="H50" t="n">
-        <v>61.81638717651367</v>
+        <v>67.94949340820312</v>
       </c>
       <c r="I50" t="n">
-        <v>74.94629669189453</v>
+        <v>74.06928253173828</v>
       </c>
       <c r="J50" t="n">
-        <v>81.98258209228516</v>
+        <v>69.62810516357422</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>243.5435180664062</v>
+        <v>231.7989044189453</v>
       </c>
       <c r="H51" t="n">
-        <v>56.35526275634766</v>
+        <v>64.5572509765625</v>
       </c>
       <c r="I51" t="n">
-        <v>94.26331329345703</v>
+        <v>97.84363555908203</v>
       </c>
       <c r="J51" t="n">
-        <v>78.07139587402344</v>
+        <v>73.22257232666016</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>262.6412658691406</v>
+        <v>253.3888092041016</v>
       </c>
       <c r="H52" t="n">
-        <v>56.94102096557617</v>
+        <v>58.65804672241211</v>
       </c>
       <c r="I52" t="n">
-        <v>111.2432327270508</v>
+        <v>111.9176025390625</v>
       </c>
       <c r="J52" t="n">
-        <v>83.54253387451172</v>
+        <v>71.56821441650391</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>299.3434143066406</v>
+        <v>287.1311340332031</v>
       </c>
       <c r="H53" t="n">
-        <v>47.26855087280273</v>
+        <v>57.28303909301758</v>
       </c>
       <c r="I53" t="n">
-        <v>164.4794006347656</v>
+        <v>176.2815093994141</v>
       </c>
       <c r="J53" t="n">
-        <v>96.70729064941406</v>
+        <v>95.37005615234375</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>330.5950012207031</v>
+        <v>316.2177429199219</v>
       </c>
       <c r="H54" t="n">
-        <v>43.67734146118164</v>
+        <v>50.77477264404297</v>
       </c>
       <c r="I54" t="n">
-        <v>241.6119995117188</v>
+        <v>267.0229797363281</v>
       </c>
       <c r="J54" t="n">
-        <v>134.9398345947266</v>
+        <v>123.9450378417969</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>364.8057250976562</v>
+        <v>344.8636779785156</v>
       </c>
       <c r="H55" t="n">
-        <v>40.12596130371094</v>
+        <v>50.18865585327148</v>
       </c>
       <c r="I55" t="n">
-        <v>344.7053527832031</v>
+        <v>411.9355773925781</v>
       </c>
       <c r="J55" t="n">
-        <v>170.6415557861328</v>
+        <v>163.5320129394531</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>412.8510131835938</v>
+        <v>402.7588195800781</v>
       </c>
       <c r="H56" t="n">
-        <v>47.85874938964844</v>
+        <v>60.55590057373047</v>
       </c>
       <c r="I56" t="n">
-        <v>421.1962280273438</v>
+        <v>499.7479248046875</v>
       </c>
       <c r="J56" t="n">
-        <v>186.4635467529297</v>
+        <v>177.6748199462891</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>486.6280212402344</v>
+        <v>497.3125</v>
       </c>
       <c r="H57" t="n">
-        <v>61.31978607177734</v>
+        <v>80.80680847167969</v>
       </c>
       <c r="I57" t="n">
-        <v>482.2529296875</v>
+        <v>568.1741943359375</v>
       </c>
       <c r="J57" t="n">
-        <v>176.1918029785156</v>
+        <v>197.3043975830078</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>611.4000244140625</v>
+        <v>618.471435546875</v>
       </c>
       <c r="H58" t="n">
-        <v>55.0994987487793</v>
+        <v>70.76673126220703</v>
       </c>
       <c r="I58" t="n">
-        <v>456.1095886230469</v>
+        <v>567.6408081054688</v>
       </c>
       <c r="J58" t="n">
-        <v>187.6742553710938</v>
+        <v>200.0958862304688</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>249.4624786376953</v>
+        <v>242.2495574951172</v>
       </c>
       <c r="H59" t="n">
-        <v>60.47968673706055</v>
+        <v>64.62861633300781</v>
       </c>
       <c r="I59" t="n">
-        <v>30.203369140625</v>
+        <v>30.22172546386719</v>
       </c>
       <c r="J59" t="n">
-        <v>80.82898712158203</v>
+        <v>66.61968994140625</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>274.5690612792969</v>
+        <v>268.4113159179688</v>
       </c>
       <c r="H60" t="n">
-        <v>56.4847412109375</v>
+        <v>59.35425567626953</v>
       </c>
       <c r="I60" t="n">
-        <v>47.46010971069336</v>
+        <v>44.54846954345703</v>
       </c>
       <c r="J60" t="n">
-        <v>82.35601043701172</v>
+        <v>70.31999969482422</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>301.7061157226562</v>
+        <v>286.8546447753906</v>
       </c>
       <c r="H61" t="n">
-        <v>48.97890472412109</v>
+        <v>59.23291015625</v>
       </c>
       <c r="I61" t="n">
-        <v>78.81766510009766</v>
+        <v>72.82933807373047</v>
       </c>
       <c r="J61" t="n">
-        <v>87.35337066650391</v>
+        <v>69.71533966064453</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>333.1185302734375</v>
+        <v>316.4883728027344</v>
       </c>
       <c r="H62" t="n">
-        <v>47.02583694458008</v>
+        <v>55.43525314331055</v>
       </c>
       <c r="I62" t="n">
-        <v>128.8299102783203</v>
+        <v>143.5717010498047</v>
       </c>
       <c r="J62" t="n">
-        <v>100.7861633300781</v>
+        <v>100.3008880615234</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>363.9632568359375</v>
+        <v>345.0079040527344</v>
       </c>
       <c r="H63" t="n">
-        <v>40.92242050170898</v>
+        <v>51.87799835205078</v>
       </c>
       <c r="I63" t="n">
-        <v>233.0279998779297</v>
+        <v>256.2752075195312</v>
       </c>
       <c r="J63" t="n">
-        <v>156.6970977783203</v>
+        <v>144.2544097900391</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>416.1672973632812</v>
+        <v>401.5863037109375</v>
       </c>
       <c r="H64" t="n">
-        <v>45.83116149902344</v>
+        <v>55.64182662963867</v>
       </c>
       <c r="I64" t="n">
-        <v>350.009521484375</v>
+        <v>408.0854187011719</v>
       </c>
       <c r="J64" t="n">
-        <v>195.4944152832031</v>
+        <v>204.1481781005859</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>490.0167236328125</v>
+        <v>496.2930603027344</v>
       </c>
       <c r="H65" t="n">
-        <v>61.59178161621094</v>
+        <v>75.29322814941406</v>
       </c>
       <c r="I65" t="n">
-        <v>439.9242858886719</v>
+        <v>507.5383911132812</v>
       </c>
       <c r="J65" t="n">
-        <v>203.2004241943359</v>
+        <v>203.8797912597656</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>284.4324645996094</v>
+        <v>279.5273742675781</v>
       </c>
       <c r="H66" t="n">
-        <v>54.88491439819336</v>
+        <v>59.07973480224609</v>
       </c>
       <c r="I66" t="n">
-        <v>-14.18137741088867</v>
+        <v>-19.0806941986084</v>
       </c>
       <c r="J66" t="n">
-        <v>82.55889129638672</v>
+        <v>70.11705780029297</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>305.2059631347656</v>
+        <v>290.5426025390625</v>
       </c>
       <c r="H67" t="n">
-        <v>49.91336059570312</v>
+        <v>55.5536003112793</v>
       </c>
       <c r="I67" t="n">
-        <v>1.173133254051208</v>
+        <v>-9.989150047302246</v>
       </c>
       <c r="J67" t="n">
-        <v>81.55355834960938</v>
+        <v>74.25592041015625</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>339.9328002929688</v>
+        <v>324.2681884765625</v>
       </c>
       <c r="H68" t="n">
-        <v>44.47214889526367</v>
+        <v>52.76191711425781</v>
       </c>
       <c r="I68" t="n">
-        <v>63.07463073730469</v>
+        <v>54.03536605834961</v>
       </c>
       <c r="J68" t="n">
-        <v>94.55744934082031</v>
+        <v>80.77430725097656</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>360.9931030273438</v>
+        <v>349.6331481933594</v>
       </c>
       <c r="H69" t="n">
-        <v>43.44214248657227</v>
+        <v>50.11972427368164</v>
       </c>
       <c r="I69" t="n">
-        <v>126.2346115112305</v>
+        <v>115.3367080688477</v>
       </c>
       <c r="J69" t="n">
-        <v>124.5868072509766</v>
+        <v>109.2994613647461</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>415.4410400390625</v>
+        <v>395.62451171875</v>
       </c>
       <c r="H70" t="n">
-        <v>44.26079177856445</v>
+        <v>50.6840705871582</v>
       </c>
       <c r="I70" t="n">
-        <v>279.0829467773438</v>
+        <v>324.1512451171875</v>
       </c>
       <c r="J70" t="n">
-        <v>177.6757659912109</v>
+        <v>204.6938781738281</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>170.4806671142578</v>
+        <v>268.3291625976562</v>
       </c>
       <c r="H2" t="n">
-        <v>86.29005432128906</v>
+        <v>69.48331451416016</v>
       </c>
       <c r="I2" t="n">
-        <v>576.7957153320312</v>
+        <v>657.1752319335938</v>
       </c>
       <c r="J2" t="n">
-        <v>125.0615234375</v>
+        <v>151.9058074951172</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>193.5359954833984</v>
+        <v>300.8252563476562</v>
       </c>
       <c r="H3" t="n">
-        <v>99.22426605224609</v>
+        <v>88.81627655029297</v>
       </c>
       <c r="I3" t="n">
-        <v>621.296875</v>
+        <v>738.3303833007812</v>
       </c>
       <c r="J3" t="n">
-        <v>133.7931823730469</v>
+        <v>142.6994323730469</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>227.47265625</v>
+        <v>342.5636901855469</v>
       </c>
       <c r="H4" t="n">
-        <v>106.2509536743164</v>
+        <v>123.8515625</v>
       </c>
       <c r="I4" t="n">
-        <v>648.9989013671875</v>
+        <v>792.6156005859375</v>
       </c>
       <c r="J4" t="n">
-        <v>142.0811004638672</v>
+        <v>121.7311553955078</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>275.0315856933594</v>
+        <v>394.7260131835938</v>
       </c>
       <c r="H5" t="n">
-        <v>131.6898498535156</v>
+        <v>152.6199645996094</v>
       </c>
       <c r="I5" t="n">
-        <v>664.4869995117188</v>
+        <v>824.4127197265625</v>
       </c>
       <c r="J5" t="n">
-        <v>150.1510009765625</v>
+        <v>103.5464324951172</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>366.2080078125</v>
+        <v>451.9853515625</v>
       </c>
       <c r="H6" t="n">
-        <v>175.2099151611328</v>
+        <v>167.6417694091797</v>
       </c>
       <c r="I6" t="n">
-        <v>697.2879638671875</v>
+        <v>823.0105590820312</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7057342529297</v>
+        <v>114.7080764770508</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>191.6075439453125</v>
+        <v>240.0821838378906</v>
       </c>
       <c r="H7" t="n">
-        <v>68.13131713867188</v>
+        <v>50.20902252197266</v>
       </c>
       <c r="I7" t="n">
-        <v>507.8174438476562</v>
+        <v>514.5081176757812</v>
       </c>
       <c r="J7" t="n">
-        <v>88.75984954833984</v>
+        <v>112.7045211791992</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>196.0294952392578</v>
+        <v>242.173828125</v>
       </c>
       <c r="H8" t="n">
-        <v>66.61227416992188</v>
+        <v>51.58829879760742</v>
       </c>
       <c r="I8" t="n">
-        <v>539.0038452148438</v>
+        <v>543.4644775390625</v>
       </c>
       <c r="J8" t="n">
-        <v>101.6376571655273</v>
+        <v>118.259407043457</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>210.5401153564453</v>
+        <v>258.3391418457031</v>
       </c>
       <c r="H9" t="n">
-        <v>73.1339111328125</v>
+        <v>53.53056716918945</v>
       </c>
       <c r="I9" t="n">
-        <v>582.37744140625</v>
+        <v>648.3882446289062</v>
       </c>
       <c r="J9" t="n">
-        <v>109.2521514892578</v>
+        <v>136.9816589355469</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>230.3766479492188</v>
+        <v>285.3308715820312</v>
       </c>
       <c r="H10" t="n">
-        <v>88.24385070800781</v>
+        <v>77.64820861816406</v>
       </c>
       <c r="I10" t="n">
-        <v>608.3169555664062</v>
+        <v>723.950439453125</v>
       </c>
       <c r="J10" t="n">
-        <v>114.3581161499023</v>
+        <v>135.6084899902344</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>281.6578063964844</v>
+        <v>340.6644592285156</v>
       </c>
       <c r="H11" t="n">
-        <v>102.5078659057617</v>
+        <v>117.6028137207031</v>
       </c>
       <c r="I11" t="n">
-        <v>644.4683837890625</v>
+        <v>755.998046875</v>
       </c>
       <c r="J11" t="n">
-        <v>119.9667816162109</v>
+        <v>117.6449279785156</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>359.8339233398438</v>
+        <v>399.0151672363281</v>
       </c>
       <c r="H12" t="n">
-        <v>143.1512908935547</v>
+        <v>140.3715667724609</v>
       </c>
       <c r="I12" t="n">
-        <v>681.206787109375</v>
+        <v>772.5307006835938</v>
       </c>
       <c r="J12" t="n">
-        <v>132.72607421875</v>
+        <v>119.4736480712891</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>507.62109375</v>
+        <v>503.3231201171875</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5464172363281</v>
+        <v>169.1837005615234</v>
       </c>
       <c r="I13" t="n">
-        <v>701.4584350585938</v>
+        <v>786.5263671875</v>
       </c>
       <c r="J13" t="n">
-        <v>146.1213073730469</v>
+        <v>118.6035079956055</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>189.6306610107422</v>
+        <v>225.5438537597656</v>
       </c>
       <c r="H14" t="n">
-        <v>70.79920959472656</v>
+        <v>51.56380462646484</v>
       </c>
       <c r="I14" t="n">
-        <v>339.8634948730469</v>
+        <v>346.8560791015625</v>
       </c>
       <c r="J14" t="n">
-        <v>87.89486694335938</v>
+        <v>86.39358520507812</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>204.8157501220703</v>
+        <v>243.1912231445312</v>
       </c>
       <c r="H15" t="n">
-        <v>68.74473571777344</v>
+        <v>46.95806503295898</v>
       </c>
       <c r="I15" t="n">
-        <v>431.6860046386719</v>
+        <v>466.5773010253906</v>
       </c>
       <c r="J15" t="n">
-        <v>90.86098480224609</v>
+        <v>108.310173034668</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>226.7737274169922</v>
+        <v>255.0354614257812</v>
       </c>
       <c r="H16" t="n">
-        <v>59.69289398193359</v>
+        <v>43.81208801269531</v>
       </c>
       <c r="I16" t="n">
-        <v>537.2359619140625</v>
+        <v>567.5357055664062</v>
       </c>
       <c r="J16" t="n">
-        <v>95.01856994628906</v>
+        <v>114.2946472167969</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>227.8406982421875</v>
+        <v>254.1624450683594</v>
       </c>
       <c r="H17" t="n">
-        <v>57.83753204345703</v>
+        <v>41.36214065551758</v>
       </c>
       <c r="I17" t="n">
-        <v>538.4061889648438</v>
+        <v>556.758544921875</v>
       </c>
       <c r="J17" t="n">
-        <v>99.60179138183594</v>
+        <v>119.1498107910156</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>243.3476257324219</v>
+        <v>273.2742309570312</v>
       </c>
       <c r="H18" t="n">
-        <v>61.90316390991211</v>
+        <v>51.07374954223633</v>
       </c>
       <c r="I18" t="n">
-        <v>580.14111328125</v>
+        <v>616.8889770507812</v>
       </c>
       <c r="J18" t="n">
-        <v>95.28127288818359</v>
+        <v>121.769157409668</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>282.0380859375</v>
+        <v>302.3237609863281</v>
       </c>
       <c r="H19" t="n">
-        <v>79.69434356689453</v>
+        <v>90.33988189697266</v>
       </c>
       <c r="I19" t="n">
-        <v>623.62890625</v>
+        <v>679.7086181640625</v>
       </c>
       <c r="J19" t="n">
-        <v>94.04359436035156</v>
+        <v>126.4377746582031</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>357.7687377929688</v>
+        <v>350.7803649902344</v>
       </c>
       <c r="H20" t="n">
-        <v>116.8906021118164</v>
+        <v>120.6999130249023</v>
       </c>
       <c r="I20" t="n">
-        <v>651.5863037109375</v>
+        <v>721.8588256835938</v>
       </c>
       <c r="J20" t="n">
-        <v>114.4025268554688</v>
+        <v>127.736198425293</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>508.8342590332031</v>
+        <v>464.8313598632812</v>
       </c>
       <c r="H21" t="n">
-        <v>150.9808502197266</v>
+        <v>147.7240905761719</v>
       </c>
       <c r="I21" t="n">
-        <v>690.0608520507812</v>
+        <v>760.2799682617188</v>
       </c>
       <c r="J21" t="n">
-        <v>139.2259979248047</v>
+        <v>134.3646087646484</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>699.6278076171875</v>
+        <v>716.2266235351562</v>
       </c>
       <c r="H22" t="n">
-        <v>109.7343597412109</v>
+        <v>119.4289855957031</v>
       </c>
       <c r="I22" t="n">
-        <v>735.4849243164062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="J22" t="n">
-        <v>160.9146575927734</v>
+        <v>146.1621246337891</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>192.0880737304688</v>
+        <v>222.5801849365234</v>
       </c>
       <c r="H23" t="n">
-        <v>67.01596069335938</v>
+        <v>51.20869445800781</v>
       </c>
       <c r="I23" t="n">
-        <v>246.4094848632812</v>
+        <v>232.9920043945312</v>
       </c>
       <c r="J23" t="n">
-        <v>82.34796905517578</v>
+        <v>81.82511138916016</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>211.1215667724609</v>
+        <v>240.4664001464844</v>
       </c>
       <c r="H24" t="n">
-        <v>62.55012130737305</v>
+        <v>49.67486953735352</v>
       </c>
       <c r="I24" t="n">
-        <v>298.3984985351562</v>
+        <v>302.9977722167969</v>
       </c>
       <c r="J24" t="n">
-        <v>83.96520233154297</v>
+        <v>89.47433471679688</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>232.8313751220703</v>
+        <v>262.5691833496094</v>
       </c>
       <c r="H25" t="n">
-        <v>59.00140380859375</v>
+        <v>44.09858322143555</v>
       </c>
       <c r="I25" t="n">
-        <v>391.1219787597656</v>
+        <v>429.9010620117188</v>
       </c>
       <c r="J25" t="n">
-        <v>99.66578674316406</v>
+        <v>113.2491760253906</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>246.6453399658203</v>
+        <v>274.9993591308594</v>
       </c>
       <c r="H26" t="n">
-        <v>55.94550704956055</v>
+        <v>45.3503303527832</v>
       </c>
       <c r="I26" t="n">
-        <v>473.1879577636719</v>
+        <v>512.362060546875</v>
       </c>
       <c r="J26" t="n">
-        <v>101.9718170166016</v>
+        <v>115.4172134399414</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>264.2599487304688</v>
+        <v>289.3555297851562</v>
       </c>
       <c r="H27" t="n">
-        <v>50.68925857543945</v>
+        <v>50.3187255859375</v>
       </c>
       <c r="I27" t="n">
-        <v>537.8121337890625</v>
+        <v>564.7445068359375</v>
       </c>
       <c r="J27" t="n">
-        <v>105.8811111450195</v>
+        <v>115.5398483276367</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>297.1683349609375</v>
+        <v>311.7921752929688</v>
       </c>
       <c r="H28" t="n">
-        <v>58.31271743774414</v>
+        <v>84.74320220947266</v>
       </c>
       <c r="I28" t="n">
-        <v>603.9605712890625</v>
+        <v>632.3964233398438</v>
       </c>
       <c r="J28" t="n">
-        <v>99.93170928955078</v>
+        <v>128.6927185058594</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>361.0595703125</v>
+        <v>350.9412536621094</v>
       </c>
       <c r="H29" t="n">
-        <v>86.12166595458984</v>
+        <v>111.6396102905273</v>
       </c>
       <c r="I29" t="n">
-        <v>644.1009521484375</v>
+        <v>677.2252197265625</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4112167358398</v>
+        <v>123.053596496582</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>516.4547119140625</v>
+        <v>490.1947021484375</v>
       </c>
       <c r="H30" t="n">
-        <v>134.3912048339844</v>
+        <v>145.0809478759766</v>
       </c>
       <c r="I30" t="n">
-        <v>672.7032470703125</v>
+        <v>702.986572265625</v>
       </c>
       <c r="J30" t="n">
-        <v>146.2801818847656</v>
+        <v>141.6607513427734</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>681.8392944335938</v>
+        <v>698.1961059570312</v>
       </c>
       <c r="H31" t="n">
-        <v>96.28208923339844</v>
+        <v>125.3275680541992</v>
       </c>
       <c r="I31" t="n">
-        <v>693.0243530273438</v>
+        <v>716.7733764648438</v>
       </c>
       <c r="J31" t="n">
-        <v>163.4676666259766</v>
+        <v>166.7994842529297</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>188.046875</v>
+        <v>220.5972137451172</v>
       </c>
       <c r="H32" t="n">
-        <v>71.07714080810547</v>
+        <v>54.24050521850586</v>
       </c>
       <c r="I32" t="n">
-        <v>173.6816711425781</v>
+        <v>138.3954162597656</v>
       </c>
       <c r="J32" t="n">
-        <v>78.11589050292969</v>
+        <v>76.82584381103516</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>216.0473327636719</v>
+        <v>245.014404296875</v>
       </c>
       <c r="H33" t="n">
-        <v>65.92905426025391</v>
+        <v>50.52101898193359</v>
       </c>
       <c r="I33" t="n">
-        <v>220.9614105224609</v>
+        <v>204.0635223388672</v>
       </c>
       <c r="J33" t="n">
-        <v>80.09156036376953</v>
+        <v>79.86972808837891</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>241.1376800537109</v>
+        <v>265.6175231933594</v>
       </c>
       <c r="H34" t="n">
-        <v>59.92549514770508</v>
+        <v>44.51563262939453</v>
       </c>
       <c r="I34" t="n">
-        <v>293.4070434570312</v>
+        <v>300.6776428222656</v>
       </c>
       <c r="J34" t="n">
-        <v>92.34479522705078</v>
+        <v>104.7345733642578</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>266.07177734375</v>
+        <v>288.9188232421875</v>
       </c>
       <c r="H35" t="n">
-        <v>53.57145309448242</v>
+        <v>46.79902267456055</v>
       </c>
       <c r="I35" t="n">
-        <v>373.083984375</v>
+        <v>412.7139892578125</v>
       </c>
       <c r="J35" t="n">
-        <v>105.2029113769531</v>
+        <v>121.5447158813477</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>292.2579650878906</v>
+        <v>314.24462890625</v>
       </c>
       <c r="H36" t="n">
-        <v>46.31455612182617</v>
+        <v>58.40015029907227</v>
       </c>
       <c r="I36" t="n">
-        <v>497.1231384277344</v>
+        <v>540.2498168945312</v>
       </c>
       <c r="J36" t="n">
-        <v>118.2748107910156</v>
+        <v>125.463508605957</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>320.3398742675781</v>
+        <v>338.7559204101562</v>
       </c>
       <c r="H37" t="n">
-        <v>48.13756561279297</v>
+        <v>75.85040283203125</v>
       </c>
       <c r="I37" t="n">
-        <v>559.572265625</v>
+        <v>601.267333984375</v>
       </c>
       <c r="J37" t="n">
-        <v>129.8319396972656</v>
+        <v>136.6275177001953</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>388.7887573242188</v>
+        <v>407.4801025390625</v>
       </c>
       <c r="H38" t="n">
-        <v>79.01389312744141</v>
+        <v>124.3721771240234</v>
       </c>
       <c r="I38" t="n">
-        <v>625.642578125</v>
+        <v>647.8677368164062</v>
       </c>
       <c r="J38" t="n">
-        <v>134.6595458984375</v>
+        <v>133.7831878662109</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>506.71337890625</v>
+        <v>519.8668212890625</v>
       </c>
       <c r="H39" t="n">
-        <v>107.190185546875</v>
+        <v>143.4090728759766</v>
       </c>
       <c r="I39" t="n">
-        <v>642.1199340820312</v>
+        <v>657.5941772460938</v>
       </c>
       <c r="J39" t="n">
-        <v>148.1563720703125</v>
+        <v>159.0593566894531</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>663.5426635742188</v>
+        <v>685.15673828125</v>
       </c>
       <c r="H40" t="n">
-        <v>84.92448425292969</v>
+        <v>109.3530426025391</v>
       </c>
       <c r="I40" t="n">
-        <v>654.0610961914062</v>
+        <v>642.8294677734375</v>
       </c>
       <c r="J40" t="n">
-        <v>172.6475219726562</v>
+        <v>196.9277954101562</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>193.0730133056641</v>
+        <v>225.880859375</v>
       </c>
       <c r="H41" t="n">
-        <v>68.80463409423828</v>
+        <v>52.52019500732422</v>
       </c>
       <c r="I41" t="n">
-        <v>124.6637725830078</v>
+        <v>85.86552429199219</v>
       </c>
       <c r="J41" t="n">
-        <v>71.48206329345703</v>
+        <v>73.53397369384766</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>220.6611480712891</v>
+        <v>246.3673248291016</v>
       </c>
       <c r="H42" t="n">
-        <v>62.44200897216797</v>
+        <v>54.54474639892578</v>
       </c>
       <c r="I42" t="n">
-        <v>154.9199981689453</v>
+        <v>127.0725631713867</v>
       </c>
       <c r="J42" t="n">
-        <v>77.70725250244141</v>
+        <v>78.41585540771484</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>248.9205017089844</v>
+        <v>263.5680236816406</v>
       </c>
       <c r="H43" t="n">
-        <v>57.92836380004883</v>
+        <v>49.66328048706055</v>
       </c>
       <c r="I43" t="n">
-        <v>184.7498168945312</v>
+        <v>175.34228515625</v>
       </c>
       <c r="J43" t="n">
-        <v>86.80190277099609</v>
+        <v>89.00701904296875</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>273.9163208007812</v>
+        <v>288.3720397949219</v>
       </c>
       <c r="H44" t="n">
-        <v>52.15863418579102</v>
+        <v>46.34116744995117</v>
       </c>
       <c r="I44" t="n">
-        <v>279.6640014648438</v>
+        <v>301.1741333007812</v>
       </c>
       <c r="J44" t="n">
-        <v>100.2591094970703</v>
+        <v>123.0849838256836</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>300.1963500976562</v>
+        <v>315.6273803710938</v>
       </c>
       <c r="H45" t="n">
-        <v>52.74314498901367</v>
+        <v>62.5023078918457</v>
       </c>
       <c r="I45" t="n">
-        <v>373.9091491699219</v>
+        <v>394.1165771484375</v>
       </c>
       <c r="J45" t="n">
-        <v>123.220832824707</v>
+        <v>125.8275756835938</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>332.0244140625</v>
+        <v>368.7181396484375</v>
       </c>
       <c r="H46" t="n">
-        <v>47.92733764648438</v>
+        <v>104.8795700073242</v>
       </c>
       <c r="I46" t="n">
-        <v>500.2933959960938</v>
+        <v>518.0379638671875</v>
       </c>
       <c r="J46" t="n">
-        <v>145.6698455810547</v>
+        <v>139.7984008789062</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>403.0162353515625</v>
+        <v>445.7895202636719</v>
       </c>
       <c r="H47" t="n">
-        <v>65.68570709228516</v>
+        <v>113.0132064819336</v>
       </c>
       <c r="I47" t="n">
-        <v>587.7683715820312</v>
+        <v>586.98486328125</v>
       </c>
       <c r="J47" t="n">
-        <v>158.7975311279297</v>
+        <v>158.3632354736328</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>523.0392456054688</v>
+        <v>554.6050415039062</v>
       </c>
       <c r="H48" t="n">
-        <v>92.66135406494141</v>
+        <v>128.5091400146484</v>
       </c>
       <c r="I48" t="n">
-        <v>613.8670043945312</v>
+        <v>609.55908203125</v>
       </c>
       <c r="J48" t="n">
-        <v>163.7181701660156</v>
+        <v>194.0454406738281</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>628.9813232421875</v>
+        <v>660.8187866210938</v>
       </c>
       <c r="H49" t="n">
-        <v>85.32049560546875</v>
+        <v>104.4802856445312</v>
       </c>
       <c r="I49" t="n">
-        <v>622.4141845703125</v>
+        <v>616.7811889648438</v>
       </c>
       <c r="J49" t="n">
-        <v>187.778564453125</v>
+        <v>204.4963684082031</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>206.3216857910156</v>
+        <v>232.6848449707031</v>
       </c>
       <c r="H50" t="n">
-        <v>67.94949340820312</v>
+        <v>52.00800323486328</v>
       </c>
       <c r="I50" t="n">
-        <v>74.06928253173828</v>
+        <v>33.90055847167969</v>
       </c>
       <c r="J50" t="n">
-        <v>69.62810516357422</v>
+        <v>73.72491455078125</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>231.7989044189453</v>
+        <v>255.5547637939453</v>
       </c>
       <c r="H51" t="n">
-        <v>64.5572509765625</v>
+        <v>53.02777862548828</v>
       </c>
       <c r="I51" t="n">
-        <v>97.84363555908203</v>
+        <v>62.8896598815918</v>
       </c>
       <c r="J51" t="n">
-        <v>73.22257232666016</v>
+        <v>78.56439971923828</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>253.3888092041016</v>
+        <v>267.5125732421875</v>
       </c>
       <c r="H52" t="n">
-        <v>58.65804672241211</v>
+        <v>48.44203948974609</v>
       </c>
       <c r="I52" t="n">
-        <v>111.9176025390625</v>
+        <v>87.56583404541016</v>
       </c>
       <c r="J52" t="n">
-        <v>71.56821441650391</v>
+        <v>94.67271423339844</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>287.1311340332031</v>
+        <v>290.8843078613281</v>
       </c>
       <c r="H53" t="n">
-        <v>57.28303909301758</v>
+        <v>53.21563339233398</v>
       </c>
       <c r="I53" t="n">
-        <v>176.2815093994141</v>
+        <v>159.3000335693359</v>
       </c>
       <c r="J53" t="n">
-        <v>95.37005615234375</v>
+        <v>112.9845275878906</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>316.2177429199219</v>
+        <v>324.3678283691406</v>
       </c>
       <c r="H54" t="n">
-        <v>50.77477264404297</v>
+        <v>76.99217224121094</v>
       </c>
       <c r="I54" t="n">
-        <v>267.0229797363281</v>
+        <v>264.5584411621094</v>
       </c>
       <c r="J54" t="n">
-        <v>123.9450378417969</v>
+        <v>133.4132232666016</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>344.8636779785156</v>
+        <v>379.4500122070312</v>
       </c>
       <c r="H55" t="n">
-        <v>50.18865585327148</v>
+        <v>102.3983383178711</v>
       </c>
       <c r="I55" t="n">
-        <v>411.9355773925781</v>
+        <v>401.7291259765625</v>
       </c>
       <c r="J55" t="n">
-        <v>163.5320129394531</v>
+        <v>156.5860137939453</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>402.7588195800781</v>
+        <v>459.2748413085938</v>
       </c>
       <c r="H56" t="n">
-        <v>60.55590057373047</v>
+        <v>96.4703369140625</v>
       </c>
       <c r="I56" t="n">
-        <v>499.7479248046875</v>
+        <v>492.1046752929688</v>
       </c>
       <c r="J56" t="n">
-        <v>177.6748199462891</v>
+        <v>165.4720611572266</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>497.3125</v>
+        <v>561.2893676757812</v>
       </c>
       <c r="H57" t="n">
-        <v>80.80680847167969</v>
+        <v>98.79419708251953</v>
       </c>
       <c r="I57" t="n">
-        <v>568.1741943359375</v>
+        <v>541.7923583984375</v>
       </c>
       <c r="J57" t="n">
-        <v>197.3043975830078</v>
+        <v>198.7118530273438</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>618.471435546875</v>
+        <v>658.164306640625</v>
       </c>
       <c r="H58" t="n">
-        <v>70.76673126220703</v>
+        <v>86.99958801269531</v>
       </c>
       <c r="I58" t="n">
-        <v>567.6408081054688</v>
+        <v>516.6482543945312</v>
       </c>
       <c r="J58" t="n">
-        <v>200.0958862304688</v>
+        <v>257.8734436035156</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>242.2495574951172</v>
+        <v>254.9142150878906</v>
       </c>
       <c r="H59" t="n">
-        <v>64.62861633300781</v>
+        <v>48.82806777954102</v>
       </c>
       <c r="I59" t="n">
-        <v>30.22172546386719</v>
+        <v>-10.97475624084473</v>
       </c>
       <c r="J59" t="n">
-        <v>66.61968994140625</v>
+        <v>82.14501953125</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>268.4113159179688</v>
+        <v>273.3698425292969</v>
       </c>
       <c r="H60" t="n">
-        <v>59.35425567626953</v>
+        <v>54.02316284179688</v>
       </c>
       <c r="I60" t="n">
-        <v>44.54846954345703</v>
+        <v>9.090790748596191</v>
       </c>
       <c r="J60" t="n">
-        <v>70.31999969482422</v>
+        <v>86.93831634521484</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>286.8546447753906</v>
+        <v>290.0076904296875</v>
       </c>
       <c r="H61" t="n">
-        <v>59.23291015625</v>
+        <v>62.30072402954102</v>
       </c>
       <c r="I61" t="n">
-        <v>72.82933807373047</v>
+        <v>46.6588249206543</v>
       </c>
       <c r="J61" t="n">
-        <v>69.71533966064453</v>
+        <v>100.8086166381836</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>316.4883728027344</v>
+        <v>317.35009765625</v>
       </c>
       <c r="H62" t="n">
-        <v>55.43525314331055</v>
+        <v>71.96592712402344</v>
       </c>
       <c r="I62" t="n">
-        <v>143.5717010498047</v>
+        <v>109.0762634277344</v>
       </c>
       <c r="J62" t="n">
-        <v>100.3008880615234</v>
+        <v>116.4135437011719</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>345.0079040527344</v>
+        <v>360.0209045410156</v>
       </c>
       <c r="H63" t="n">
-        <v>51.87799835205078</v>
+        <v>93.79789733886719</v>
       </c>
       <c r="I63" t="n">
-        <v>256.2752075195312</v>
+        <v>237.1911468505859</v>
       </c>
       <c r="J63" t="n">
-        <v>144.2544097900391</v>
+        <v>148.0534210205078</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>401.5863037109375</v>
+        <v>451.1589965820312</v>
       </c>
       <c r="H64" t="n">
-        <v>55.64182662963867</v>
+        <v>97.35678863525391</v>
       </c>
       <c r="I64" t="n">
-        <v>408.0854187011719</v>
+        <v>372.2742309570312</v>
       </c>
       <c r="J64" t="n">
-        <v>204.1481781005859</v>
+        <v>181.1063842773438</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>496.2930603027344</v>
+        <v>562.9180297851562</v>
       </c>
       <c r="H65" t="n">
-        <v>75.29322814941406</v>
+        <v>94.40479278564453</v>
       </c>
       <c r="I65" t="n">
-        <v>507.5383911132812</v>
+        <v>445.3597412109375</v>
       </c>
       <c r="J65" t="n">
-        <v>203.8797912597656</v>
+        <v>216.2775115966797</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>279.5273742675781</v>
+        <v>277.5457153320312</v>
       </c>
       <c r="H66" t="n">
-        <v>59.07973480224609</v>
+        <v>49.85234069824219</v>
       </c>
       <c r="I66" t="n">
-        <v>-19.0806941986084</v>
+        <v>-70.03909301757812</v>
       </c>
       <c r="J66" t="n">
-        <v>70.11705780029297</v>
+        <v>85.33258056640625</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>290.5426025390625</v>
+        <v>288.9450378417969</v>
       </c>
       <c r="H67" t="n">
-        <v>55.5536003112793</v>
+        <v>56.37778091430664</v>
       </c>
       <c r="I67" t="n">
-        <v>-9.989150047302246</v>
+        <v>-51.81503677368164</v>
       </c>
       <c r="J67" t="n">
-        <v>74.25592041015625</v>
+        <v>85.11094665527344</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>324.2681884765625</v>
+        <v>321.6104431152344</v>
       </c>
       <c r="H68" t="n">
-        <v>52.76191711425781</v>
+        <v>77.94475555419922</v>
       </c>
       <c r="I68" t="n">
-        <v>54.03536605834961</v>
+        <v>26.57211112976074</v>
       </c>
       <c r="J68" t="n">
-        <v>80.77430725097656</v>
+        <v>112.3015899658203</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>349.6331481933594</v>
+        <v>346.3387145996094</v>
       </c>
       <c r="H69" t="n">
-        <v>50.11972427368164</v>
+        <v>89.78822326660156</v>
       </c>
       <c r="I69" t="n">
-        <v>115.3367080688477</v>
+        <v>75.71333312988281</v>
       </c>
       <c r="J69" t="n">
-        <v>109.2994613647461</v>
+        <v>115.853759765625</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>395.62451171875</v>
+        <v>437.9543762207031</v>
       </c>
       <c r="H70" t="n">
-        <v>50.6840705871582</v>
+        <v>94.53340911865234</v>
       </c>
       <c r="I70" t="n">
-        <v>324.1512451171875</v>
+        <v>231.0045776367188</v>
       </c>
       <c r="J70" t="n">
-        <v>204.6938781738281</v>
+        <v>158.7154541015625</v>
       </c>
     </row>
   </sheetData>
